--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3517556666666666</v>
+        <v>2.11624</v>
       </c>
       <c r="H2">
-        <v>1.055267</v>
+        <v>6.34872</v>
       </c>
       <c r="I2">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="J2">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N2">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q2">
-        <v>15.37022755449811</v>
+        <v>97.96332365325333</v>
       </c>
       <c r="R2">
-        <v>138.332047990483</v>
+        <v>881.66991287928</v>
       </c>
       <c r="S2">
-        <v>0.01437493760179237</v>
+        <v>0.059464243815341</v>
       </c>
       <c r="T2">
-        <v>0.01437493760179237</v>
+        <v>0.05946424381534101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3517556666666666</v>
+        <v>2.11624</v>
       </c>
       <c r="H3">
-        <v>1.055267</v>
+        <v>6.34872</v>
       </c>
       <c r="I3">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="J3">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N3">
         <v>140.44867</v>
       </c>
       <c r="O3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q3">
-        <v>16.46787184943222</v>
+        <v>99.07436446693333</v>
       </c>
       <c r="R3">
-        <v>148.21084664489</v>
+        <v>891.6692802023999</v>
       </c>
       <c r="S3">
-        <v>0.01540150459259946</v>
+        <v>0.0601386513320491</v>
       </c>
       <c r="T3">
-        <v>0.01540150459259946</v>
+        <v>0.0601386513320491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3517556666666666</v>
+        <v>2.11624</v>
       </c>
       <c r="H4">
-        <v>1.055267</v>
+        <v>6.34872</v>
       </c>
       <c r="I4">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="J4">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N4">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q4">
-        <v>7.474879440318889</v>
+        <v>81.55024448349332</v>
       </c>
       <c r="R4">
-        <v>67.27391496286999</v>
+        <v>733.95220035144</v>
       </c>
       <c r="S4">
-        <v>0.006990848063538207</v>
+        <v>0.0495014199225372</v>
       </c>
       <c r="T4">
-        <v>0.006990848063538207</v>
+        <v>0.0495014199225372</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3517556666666666</v>
+        <v>2.11624</v>
       </c>
       <c r="H5">
-        <v>1.055267</v>
+        <v>6.34872</v>
       </c>
       <c r="I5">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="J5">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N5">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q5">
-        <v>6.362919041507111</v>
+        <v>34.02798302754666</v>
       </c>
       <c r="R5">
-        <v>57.266271373564</v>
+        <v>306.25184724792</v>
       </c>
       <c r="S5">
-        <v>0.005950891999653803</v>
+        <v>0.02065516158329242</v>
       </c>
       <c r="T5">
-        <v>0.005950891999653803</v>
+        <v>0.02065516158329243</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>20.610225</v>
       </c>
       <c r="I6">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="J6">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N6">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O6">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P6">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q6">
-        <v>300.193077391225</v>
+        <v>318.024128051225</v>
       </c>
       <c r="R6">
-        <v>2701.737696521025</v>
+        <v>2862.217152461025</v>
       </c>
       <c r="S6">
-        <v>0.2807542530316035</v>
+        <v>0.1930422895464025</v>
       </c>
       <c r="T6">
-        <v>0.2807542530316035</v>
+        <v>0.1930422895464025</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>20.610225</v>
       </c>
       <c r="I7">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="J7">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N7">
         <v>140.44867</v>
       </c>
       <c r="O7">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P7">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q7">
-        <v>321.6309655167501</v>
+        <v>321.63096551675</v>
       </c>
       <c r="R7">
-        <v>2894.678689650751</v>
+        <v>2894.67868965075</v>
       </c>
       <c r="S7">
-        <v>0.3008039434493907</v>
+        <v>0.1952316585311814</v>
       </c>
       <c r="T7">
-        <v>0.3008039434493907</v>
+        <v>0.1952316585311814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>20.610225</v>
       </c>
       <c r="I8">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="J8">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N8">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O8">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P8">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q8">
-        <v>145.99049066525</v>
+        <v>264.741378988175</v>
       </c>
       <c r="R8">
-        <v>1313.91441598725</v>
+        <v>2382.672410893575</v>
       </c>
       <c r="S8">
-        <v>0.1365369631859394</v>
+        <v>0.1606993854545443</v>
       </c>
       <c r="T8">
-        <v>0.1365369631859394</v>
+        <v>0.1606993854545443</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>20.610225</v>
       </c>
       <c r="I9">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="J9">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N9">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O9">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P9">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q9">
-        <v>124.2729973573</v>
+        <v>110.467052649025</v>
       </c>
       <c r="R9">
-        <v>1118.4569762157</v>
+        <v>994.203473841225</v>
       </c>
       <c r="S9">
-        <v>0.1162257732531812</v>
+        <v>0.06705407194568561</v>
       </c>
       <c r="T9">
-        <v>0.1162257732531812</v>
+        <v>0.06705407194568561</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2767293333333333</v>
+        <v>1.793503666666667</v>
       </c>
       <c r="H10">
-        <v>0.8301879999999999</v>
+        <v>5.380511</v>
       </c>
       <c r="I10">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="J10">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N10">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O10">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P10">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q10">
-        <v>12.09189567475689</v>
+        <v>83.02346622829323</v>
       </c>
       <c r="R10">
-        <v>108.827061072812</v>
+        <v>747.211196054639</v>
       </c>
       <c r="S10">
-        <v>0.01130889215502504</v>
+        <v>0.05039567313649433</v>
       </c>
       <c r="T10">
-        <v>0.01130889215502503</v>
+        <v>0.05039567313649433</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2767293333333333</v>
+        <v>1.793503666666667</v>
       </c>
       <c r="H11">
-        <v>0.8301879999999999</v>
+        <v>5.380511</v>
       </c>
       <c r="I11">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="J11">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N11">
         <v>140.44867</v>
       </c>
       <c r="O11">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P11">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q11">
-        <v>12.95542227221778</v>
+        <v>83.9650682078189</v>
       </c>
       <c r="R11">
-        <v>116.59880044996</v>
+        <v>755.68561387037</v>
       </c>
       <c r="S11">
-        <v>0.01211650160075219</v>
+        <v>0.05096723040506667</v>
       </c>
       <c r="T11">
-        <v>0.01211650160075218</v>
+        <v>0.05096723040506667</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2767293333333333</v>
+        <v>1.793503666666667</v>
       </c>
       <c r="H12">
-        <v>0.8301879999999999</v>
+        <v>5.380511</v>
       </c>
       <c r="I12">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="J12">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N12">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O12">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P12">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q12">
-        <v>5.880554601631111</v>
+        <v>69.11345712145523</v>
       </c>
       <c r="R12">
-        <v>52.92499141467999</v>
+        <v>622.021114093097</v>
       </c>
       <c r="S12">
-        <v>0.005499762782473685</v>
+        <v>0.0419522257098802</v>
       </c>
       <c r="T12">
-        <v>0.005499762782473683</v>
+        <v>0.0419522257098802</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2767293333333333</v>
+        <v>1.793503666666667</v>
       </c>
       <c r="H13">
-        <v>0.8301879999999999</v>
+        <v>5.380511</v>
       </c>
       <c r="I13">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="J13">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N13">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O13">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P13">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q13">
-        <v>5.005765397032889</v>
+        <v>28.83855910916344</v>
       </c>
       <c r="R13">
-        <v>45.051888573296</v>
+        <v>259.547031982471</v>
       </c>
       <c r="S13">
-        <v>0.004681620033042436</v>
+        <v>0.01750515444147518</v>
       </c>
       <c r="T13">
-        <v>0.004681620033042435</v>
+        <v>0.01750515444147518</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.7357713333333334</v>
+        <v>0.3724043333333333</v>
       </c>
       <c r="H14">
-        <v>2.207314</v>
+        <v>1.117213</v>
       </c>
       <c r="I14">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="J14">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N14">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O14">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P14">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q14">
-        <v>32.15007999324289</v>
+        <v>17.23904955780411</v>
       </c>
       <c r="R14">
-        <v>289.350719939186</v>
+        <v>155.151446020237</v>
       </c>
       <c r="S14">
-        <v>0.03006822066601413</v>
+        <v>0.01046419218766438</v>
       </c>
       <c r="T14">
-        <v>0.03006822066601413</v>
+        <v>0.01046419218766438</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.7357713333333334</v>
+        <v>0.3724043333333333</v>
       </c>
       <c r="H15">
-        <v>2.207314</v>
+        <v>1.117213</v>
       </c>
       <c r="I15">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="J15">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N15">
         <v>140.44867</v>
       </c>
       <c r="O15">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P15">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q15">
-        <v>34.44603506359779</v>
+        <v>17.43456443963445</v>
       </c>
       <c r="R15">
-        <v>310.0143155723801</v>
+        <v>156.91107995671</v>
       </c>
       <c r="S15">
-        <v>0.03221550252998443</v>
+        <v>0.01058287073152266</v>
       </c>
       <c r="T15">
-        <v>0.03221550252998443</v>
+        <v>0.01058287073152266</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.7357713333333334</v>
+        <v>0.3724043333333333</v>
       </c>
       <c r="H16">
-        <v>2.207314</v>
+        <v>1.117213</v>
       </c>
       <c r="I16">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="J16">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N16">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O16">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P16">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q16">
-        <v>15.63529044017112</v>
+        <v>14.35076571185011</v>
       </c>
       <c r="R16">
-        <v>140.71761396154</v>
+        <v>129.156891406651</v>
       </c>
       <c r="S16">
-        <v>0.01462283649779703</v>
+        <v>0.008710988964061663</v>
       </c>
       <c r="T16">
-        <v>0.01462283649779703</v>
+        <v>0.008710988964061663</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.7357713333333334</v>
+        <v>0.3724043333333333</v>
       </c>
       <c r="H17">
-        <v>2.207314</v>
+        <v>1.117213</v>
       </c>
       <c r="I17">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="J17">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N17">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O17">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P17">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q17">
-        <v>13.30939021232089</v>
+        <v>5.988058223099222</v>
       </c>
       <c r="R17">
-        <v>119.784511910888</v>
+        <v>53.89252400789299</v>
       </c>
       <c r="S17">
-        <v>0.01244754855721238</v>
+        <v>0.003634782292801523</v>
       </c>
       <c r="T17">
-        <v>0.01244754855721238</v>
+        <v>0.003634782292801523</v>
       </c>
     </row>
   </sheetData>
